--- a/reportes/inventarios.xlsx
+++ b/reportes/inventarios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Codigo</t>
   </si>
@@ -38,16 +38,37 @@
     <t>PCS</t>
   </si>
   <si>
+    <t>AM-001</t>
+  </si>
+  <si>
+    <t>AX-012</t>
+  </si>
+  <si>
+    <t>BIZ-001</t>
+  </si>
+  <si>
     <t>AX-004</t>
   </si>
   <si>
+    <t>CG-001</t>
+  </si>
+  <si>
+    <t>AX-005</t>
+  </si>
+  <si>
+    <t>Balatas2</t>
+  </si>
+  <si>
+    <t>BIZ-002</t>
+  </si>
+  <si>
     <t>AX-013</t>
   </si>
   <si>
-    <t>Balatas2</t>
-  </si>
-  <si>
-    <t>AX-005</t>
+    <t>CG-002</t>
+  </si>
+  <si>
+    <t>AM-002</t>
   </si>
   <si>
     <t>AX-014</t>
@@ -56,43 +77,94 @@
     <t>Balatas3-update2</t>
   </si>
   <si>
+    <t>BIZ-003</t>
+  </si>
+  <si>
+    <t>CG-003</t>
+  </si>
+  <si>
     <t>AX-007</t>
   </si>
   <si>
+    <t>AM-003</t>
+  </si>
+  <si>
+    <t>BIZ-004</t>
+  </si>
+  <si>
+    <t>Balatas4</t>
+  </si>
+  <si>
+    <t>CG-004</t>
+  </si>
+  <si>
+    <t>AM-004</t>
+  </si>
+  <si>
     <t>AX-015</t>
   </si>
   <si>
-    <t>Balatas4</t>
-  </si>
-  <si>
     <t>AX-008</t>
   </si>
   <si>
+    <t>AM-005</t>
+  </si>
+  <si>
+    <t>Balatas5</t>
+  </si>
+  <si>
+    <t>BIZ-005</t>
+  </si>
+  <si>
     <t>AX-016</t>
   </si>
   <si>
-    <t>Balatas5</t>
+    <t>CG-005</t>
   </si>
   <si>
     <t>AX-009</t>
   </si>
   <si>
+    <t>CG-006</t>
+  </si>
+  <si>
+    <t>Balatas6</t>
+  </si>
+  <si>
+    <t>BIZ-006</t>
+  </si>
+  <si>
+    <t>AX-018</t>
+  </si>
+  <si>
+    <t>AM-006</t>
+  </si>
+  <si>
     <t>AX-010</t>
   </si>
   <si>
-    <t>Balatas6</t>
-  </si>
-  <si>
-    <t>AX-018</t>
+    <t>AM-009</t>
+  </si>
+  <si>
+    <t>bomba de freno</t>
+  </si>
+  <si>
+    <t>AX-020</t>
+  </si>
+  <si>
+    <t>chapa de contacto AX-100</t>
   </si>
   <si>
     <t>AX-011</t>
   </si>
   <si>
-    <t>chapa de contacto AX-100</t>
-  </si>
-  <si>
-    <t>AX-020</t>
+    <t>AM-007</t>
+  </si>
+  <si>
+    <t>CG-007</t>
+  </si>
+  <si>
+    <t>BIZ-007</t>
   </si>
 </sst>
 </file>
@@ -431,7 +503,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>515</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -486,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>500</v>
@@ -497,10 +569,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>500</v>
@@ -511,13 +583,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -525,10 +597,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>500</v>
@@ -539,10 +611,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>500</v>
@@ -553,10 +625,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>500</v>
@@ -567,13 +639,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -581,10 +653,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>500</v>
@@ -595,10 +667,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>500</v>
@@ -609,10 +681,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>500</v>
@@ -623,13 +695,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -637,15 +709,337 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>500</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>500</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>500</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
         <v>200</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>200</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+      <c r="D38" t="s">
         <v>6</v>
       </c>
     </row>
